--- a/biology/Botanique/Prunus_brigantina/Prunus_brigantina.xlsx
+++ b/biology/Botanique/Prunus_brigantina/Prunus_brigantina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Marmottier, Prunier de Briançon, Prunier des Alpes[1] ou Abricotier de Briançon (Prunus brigantina), est une espèce de plantes à fleurs de la famille des Rosaceae. L'espèce est protégée à l'état sauvage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Marmottier, Prunier de Briançon, Prunier des Alpes ou Abricotier de Briançon (Prunus brigantina), est une espèce de plantes à fleurs de la famille des Rosaceae. L'espèce est protégée à l'état sauvage.
 En occitan vivaro-alpin, on dit l'arbre l'Afatoulier et le fruit l'Afatous ou "abrignons". Le fruit, proche de l'abricot, est comestible.
 Il est de petite taille, (2,5 cm), arrondi, à peau jaune, à chair verdâtre, consistante et acide et arrive à maturité en septembre-octobre.
-C'est l'arbre fruitier qui résiste le mieux à l'altitude d'Europe (entre 1 100 et 2 000 m). Il pousse dans les lieux arides, pierreux. L'amande servait à produire l'huile (dite parfois huile de marmotte). Il y avait des moulins à huile d'afatous sur toutes les Alpes du sud ; le dernier aurait fermé à Suse (I) en 1940  [2].
+C'est l'arbre fruitier qui résiste le mieux à l'altitude d'Europe (entre 1 100 et 2 000 m). Il pousse dans les lieux arides, pierreux. L'amande servait à produire l'huile (dite parfois huile de marmotte). Il y avait des moulins à huile d'afatous sur toutes les Alpes du sud ; le dernier aurait fermé à Suse (I) en 1940  .
 Il est décrit pour la première fois en 1785 par Dominique Villars, botaniste des Hautes-Alpes.
 </t>
         </is>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -593,7 +611,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prunier des Alpes
 Marmottier ou marmotier</t>
@@ -624,7 +644,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prunus brigantiaca Vill.
 Prunus brigantiaca Chaix
